--- a/Tugas/Pertemuan 02 Tugas 1/Tugas_.xlsx
+++ b/Tugas/Pertemuan 02 Tugas 1/Tugas_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\4. Teknik Peubah Ganda\02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17E562F-0D36-4B10-9D72-972C23CF0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05435FDC-13FF-4D19-B063-009942E61BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Xbar</t>
   </si>
@@ -229,7 +229,16 @@
     </r>
   </si>
   <si>
-    <t>Sedangkan</t>
+    <t xml:space="preserve"> di^2 &gt; qi(0.5;2) </t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Persen</t>
+  </si>
+  <si>
+    <t>Terlihat bahwa</t>
   </si>
 </sst>
 </file>
@@ -285,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -332,6 +341,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -354,12 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,9 +383,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,7 +1676,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,9 +1684,10 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1678,39 +1699,39 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1.681031491607428</v>
       </c>
       <c r="B2" s="4">
         <v>0.21104203275496011</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <f>_xlfn.VAR.S(A15:A24)</f>
         <v>0.28404002935187944</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <f>_xlfn.COVARIANCE.S(A15:A24,B15:B24)</f>
         <v>-1.1756189995481867E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2.4741924009285872</v>
       </c>
       <c r="B3" s="4">
         <v>9.4838480185717347E-2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <f>E2</f>
         <v>-1.1756189995481867E-2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <f>_xlfn.VAR.S(B15:B24)</f>
         <v>6.8181207813988636E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.8444250598549841</v>
       </c>
@@ -1718,7 +1739,7 @@
         <v>0.2763994600539828</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2.5871296999976039</v>
       </c>
@@ -1729,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2.0843056808225811</v>
       </c>
@@ -1744,7 +1765,7 @@
         <v>6.5369865583549709</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2.4290247648023069</v>
       </c>
@@ -1758,7 +1779,7 @@
         <v>157.93942209351658</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2.9635886405594651</v>
       </c>
@@ -1766,7 +1787,7 @@
         <v>1.4063597914238359E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2.222825986333191</v>
       </c>
@@ -1776,12 +1797,12 @@
       <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <f>COUNT(A2:A11)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2.7453573429957032</v>
       </c>
@@ -1791,27 +1812,27 @@
       <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <f>COUNT(A2:B2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1.202894829679281</v>
       </c>
       <c r="B11" s="4">
         <v>4.9006634006886221E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>0.5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <f>50%</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>AVERAGE(A2:A11)</f>
         <v>2.2234775897581129</v>
@@ -1824,19 +1845,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="15"/>
+      <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -1848,16 +1869,19 @@
       <c r="J14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <f>A2-$A$12</f>
         <v>-0.5424460981506849</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <f>B2-$B$12</f>
         <v>9.7871980188855651E-2</v>
       </c>
@@ -1868,14 +1892,14 @@
       <c r="E15" s="6">
         <v>11.911881137932836</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <f>SUMPRODUCT(D15:E15,A15:B15)</f>
         <v>1.9343385387999836</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <f>(G15-$F$11)/$F$9</f>
         <v>0.05</v>
       </c>
@@ -1883,20 +1907,23 @@
         <f>_xlfn.CHISQ.INV(H15,$F$10)</f>
         <v>0.10258658877510107</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <v>4.2050143538351403E-2</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="17">
         <f>_xlfn.CHISQ.INV(F11, F10)</f>
         <v>1.3862943611198906</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <f t="shared" ref="A16:A24" si="0">A3-$A$12</f>
         <v>0.25071481117047423</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <f>B3-$B$12</f>
         <v>-1.8331572380387115E-2</v>
       </c>
@@ -1906,14 +1933,14 @@
       <c r="E16" s="6">
         <v>-1.2563585972219165</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <f t="shared" ref="F16:F24" si="1">SUMPRODUCT(D16:E16,A16:B16)</f>
         <v>0.23129343906766123</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <f t="shared" ref="H16:H24" si="2">(G16-$F$11)/$F$9</f>
         <v>0.15</v>
       </c>
@@ -1921,19 +1948,26 @@
         <f t="shared" ref="I16:I24" si="3">_xlfn.CHISQ.INV(H16,$F$10)</f>
         <v>0.32503785899554977</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <v>0.20491046310447483</v>
       </c>
-      <c r="K16" t="s">
-        <v>19</v>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6">
+        <f>COUNTIF(J15:J24, "&lt;" &amp; $K$15)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>-0.37905252990312888</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <f t="shared" ref="B17:B24" si="4">B4-$B$12</f>
         <v>0.16322940748787834</v>
       </c>
@@ -1943,14 +1977,14 @@
       <c r="E17" s="6">
         <v>23.302496994415435</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <f t="shared" si="1"/>
         <v>3.9439144068228145</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -1958,19 +1992,23 @@
         <f t="shared" si="3"/>
         <v>0.5753641449035618</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>0.23129343906766123</v>
       </c>
-      <c r="K17" t="s">
-        <v>18</v>
+      <c r="L17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="6" t="str">
+        <f>TEXT((M16/F9), "0.0%")</f>
+        <v>50%</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>0.36365211023949096</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <f t="shared" si="4"/>
         <v>4.2558874334163443E-3</v>
       </c>
@@ -1980,14 +2018,14 @@
       <c r="E18" s="6">
         <v>3.0493613582818093</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
         <v>0.52445274233540473</v>
       </c>
       <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
@@ -1995,16 +2033,19 @@
         <f t="shared" si="3"/>
         <v>0.86156583218490856</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <v>0.52445274233540473</v>
       </c>
+      <c r="K18" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>-0.13917190893553189</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <f t="shared" si="4"/>
         <v>-9.6308916401588257E-2</v>
       </c>
@@ -2014,14 +2055,14 @@
       <c r="E19" s="6">
         <v>-16.120739496931826</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <f t="shared" si="1"/>
         <v>1.7136203246299071</v>
       </c>
       <c r="G19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -2029,22 +2070,19 @@
         <f t="shared" si="3"/>
         <v>1.1956740015112408</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>1.2811898959689527</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>0.20554717504419395</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <f t="shared" si="4"/>
         <v>-2.7365099605643081E-2</v>
       </c>
@@ -2054,14 +2092,14 @@
       <c r="E20" s="6">
         <v>-2.9783688968750544</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <f t="shared" si="1"/>
         <v>0.20491046310447483</v>
       </c>
       <c r="G20" s="4">
         <v>6</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
@@ -2069,19 +2107,19 @@
         <f t="shared" si="3"/>
         <v>1.5970153924355435</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="12">
         <v>1.7136203246299071</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>0.7401110508013522</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <f t="shared" si="4"/>
         <v>-9.9106454651866099E-2</v>
       </c>
@@ -2091,14 +2129,14 @@
       <c r="E21" s="6">
         <v>-10.814720182674627</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <f t="shared" si="1"/>
         <v>2.6690014770250929</v>
       </c>
       <c r="G21" s="4">
         <v>7</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
@@ -2106,19 +2144,16 @@
         <f t="shared" si="3"/>
         <v>2.0996442489973557</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <v>1.9343385387999836</v>
       </c>
-      <c r="K21" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>-6.5160342492198708E-4</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <f t="shared" si="4"/>
         <v>1.6343610021746835E-2</v>
       </c>
@@ -2128,14 +2163,14 @@
       <c r="E22" s="6">
         <v>2.5770407989264079</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <f t="shared" si="1"/>
         <v>4.2050143538351376E-2</v>
       </c>
       <c r="G22" s="4">
         <v>8</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -2143,16 +2178,22 @@
         <f t="shared" si="3"/>
         <v>2.7725887222397811</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="12">
         <v>2.6690014770250929</v>
       </c>
+      <c r="K22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>0.52187975323759028</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <f t="shared" si="4"/>
         <v>2.3574576466805441E-2</v>
       </c>
@@ -2162,14 +2203,14 @@
       <c r="E23" s="6">
         <v>7.1348759152584034</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <f t="shared" si="1"/>
         <v>1.2811898959689527</v>
       </c>
       <c r="G23" s="4">
         <v>9</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
@@ -2177,22 +2218,16 @@
         <f t="shared" si="3"/>
         <v>3.7942399697717621</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="12">
         <v>3.9439144068228145</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>-1.020582760078832</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <f t="shared" si="4"/>
         <v>-6.4163418559218241E-2</v>
       </c>
@@ -2202,14 +2237,14 @@
       <c r="E24" s="6">
         <v>-16.805469031111485</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <f t="shared" si="1"/>
         <v>5.4552285687073585</v>
       </c>
       <c r="G24" s="4">
         <v>10</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
@@ -2217,7 +2252,7 @@
         <f t="shared" si="3"/>
         <v>5.9914645471079799</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <v>5.4552285687073585</v>
       </c>
     </row>
